--- a/test_data/operations/device_requirements.xlsx
+++ b/test_data/operations/device_requirements.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="110" windowWidth="22980" windowHeight="8940" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="110" windowWidth="22980" windowHeight="8940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="On-Site" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="16">
   <si>
     <t>False</t>
   </si>
@@ -710,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCellId="1" sqref="A1:XFD1 A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -754,18 +754,6 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -792,18 +780,10 @@
       <c r="H2" s="1">
         <v>3</v>
       </c>
-      <c r="I2" s="1">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1">
-        <v>6</v>
-      </c>
-      <c r="K2" s="1">
-        <v>15</v>
-      </c>
-      <c r="L2" s="1">
-        <v>1</v>
-      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
@@ -830,18 +810,10 @@
       <c r="H3" s="1">
         <v>2</v>
       </c>
-      <c r="I3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1">
-        <v>6</v>
-      </c>
-      <c r="K3" s="1">
-        <v>15</v>
-      </c>
-      <c r="L3" s="1">
-        <v>1</v>
-      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
@@ -868,18 +840,10 @@
       <c r="H4" s="1">
         <v>4</v>
       </c>
-      <c r="I4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1">
-        <v>6</v>
-      </c>
-      <c r="K4" s="1">
-        <v>15</v>
-      </c>
-      <c r="L4" s="1">
-        <v>1</v>
-      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -890,7 +854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>

--- a/test_data/operations/device_requirements.xlsx
+++ b/test_data/operations/device_requirements.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtopper\Programming\Python\git\dtocean-core\test_data\operations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\Python\git\dtocean-core\test_data\operations\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEF98AC-C763-4B76-9B05-C07649993985}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="110" windowWidth="22980" windowHeight="8940" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="22980" windowHeight="8940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="On-Site" sheetId="1" r:id="rId1"/>
     <sheet name="Replacement" sheetId="2" r:id="rId2"/>
     <sheet name="Inspections" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="17">
   <si>
     <t>False</t>
   </si>
@@ -69,12 +70,15 @@
   </si>
   <si>
     <t>Max Current Velocity</t>
+  </si>
+  <si>
+    <t>Interruptible</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -176,11 +180,11 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Explanatory Text 2" xfId="2"/>
+    <cellStyle name="Explanatory Text 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3"/>
-    <cellStyle name="Normal 3" xfId="4"/>
-    <cellStyle name="Normal 4" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 4" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -271,6 +275,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -306,6 +327,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -481,29 +519,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="30.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -541,7 +579,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -579,7 +617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -617,7 +655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -655,7 +693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -669,7 +707,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -683,7 +721,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -692,7 +730,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -707,29 +745,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="30.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -737,7 +775,7 @@
         <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
@@ -755,7 +793,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -785,7 +823,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -815,7 +853,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -851,27 +889,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.36328125" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="29.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -903,7 +941,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -935,7 +973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
@@ -967,7 +1005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>10</v>
       </c>

--- a/test_data/operations/device_requirements.xlsx
+++ b/test_data/operations/device_requirements.xlsx
@@ -1,36 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\Python\git\dtocean-core\test_data\operations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEF98AC-C763-4B76-9B05-C07649993985}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465BF276-A5F0-4FDE-A75C-409D66A4BD36}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="22980" windowHeight="8940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="22980" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="On-Site" sheetId="1" r:id="rId1"/>
     <sheet name="Replacement" sheetId="2" r:id="rId2"/>
     <sheet name="Inspections" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="16">
   <si>
     <t>False</t>
   </si>
   <si>
     <t>Sub-System</t>
-  </si>
-  <si>
-    <t>Interruptable</t>
   </si>
   <si>
     <t>Crew Preparation Delay</t>
@@ -522,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,42 +543,42 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1">
         <v>8</v>
@@ -619,7 +616,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>8</v>
@@ -657,7 +654,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1">
         <v>16</v>
@@ -748,7 +745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -772,30 +769,30 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1">
         <v>4</v>
@@ -825,7 +822,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>8</v>
@@ -855,7 +852,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1">
         <v>16</v>
@@ -914,36 +911,36 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="7">
         <v>1</v>
@@ -975,7 +972,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="7">
         <v>2</v>
@@ -1007,7 +1004,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="7">
         <v>2</v>
